--- a/data/sample_final.xlsx
+++ b/data/sample_final.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gilad\Documents\Tableau\The NUFORC Vitrine\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F33F744-9C4E-4D98-A062-A7A3A7AD5253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -47,81 +53,6 @@
   </si>
   <si>
     <t>Longitude</t>
-  </si>
-  <si>
-    <t>19:05:00</t>
-  </si>
-  <si>
-    <t>19:10:00</t>
-  </si>
-  <si>
-    <t>19:12:00</t>
-  </si>
-  <si>
-    <t>19:15:00</t>
-  </si>
-  <si>
-    <t>19:17:00</t>
-  </si>
-  <si>
-    <t>19:30:00</t>
-  </si>
-  <si>
-    <t>19:35:00</t>
-  </si>
-  <si>
-    <t>19:40:00</t>
-  </si>
-  <si>
-    <t>19:45:00</t>
-  </si>
-  <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>22:30:00</t>
-  </si>
-  <si>
-    <t>22:00:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
-    <t>20:00:00</t>
-  </si>
-  <si>
-    <t>20:03:00</t>
-  </si>
-  <si>
-    <t>20:15:00</t>
-  </si>
-  <si>
-    <t>20:18:00</t>
-  </si>
-  <si>
-    <t>20:23:00</t>
-  </si>
-  <si>
-    <t>07:30:00</t>
-  </si>
-  <si>
-    <t>21:30:00</t>
-  </si>
-  <si>
-    <t>21:00:00</t>
-  </si>
-  <si>
-    <t>22:23:00</t>
   </si>
   <si>
     <t>Pie Town</t>
@@ -595,11 +526,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,13 +593,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -676,6 +608,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -722,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,9 +694,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,6 +746,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -963,14 +939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,74 +986,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42315</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="K2">
-        <v>34.2996431</v>
+        <v>34.299643099999997</v>
       </c>
       <c r="L2">
-        <v>-108.1325424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>-108.13254240000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42315</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3" s="4">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="K3">
         <v>43.4375</v>
@@ -1081,375 +1062,375 @@
         <v>-116.3232</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42315</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="C4" s="4">
+        <v>0.125</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="K4">
-        <v>33.65789817</v>
+        <v>33.657898170000003</v>
       </c>
       <c r="L4">
-        <v>-112.246642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-112.24664199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42315</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5" s="4">
+        <v>0.16666666666666666</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="K5">
-        <v>33.53538055</v>
+        <v>33.535380549999999</v>
       </c>
       <c r="L5">
         <v>-112.04946</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42315</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6" s="4">
+        <v>0.20833333333333401</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="K6">
-        <v>41.7091</v>
+        <v>41.709099999999999</v>
       </c>
       <c r="L6">
-        <v>-87.75960000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>-87.759600000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42315</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7" s="4">
+        <v>0.25</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="K7">
-        <v>35.08407849</v>
+        <v>35.084078490000003</v>
       </c>
       <c r="L7">
         <v>-114.5628231</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42315</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="C8" s="4">
+        <v>0.29166666666666702</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="K8">
-        <v>32.25994076</v>
+        <v>32.259940759999999</v>
       </c>
       <c r="L8">
         <v>-110.9275423</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42315</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="C9" s="4">
+        <v>0.33333333333333398</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="K9">
-        <v>39.6556179</v>
+        <v>39.655617900000003</v>
       </c>
       <c r="L9">
-        <v>-85.9669193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>-85.966919300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42315</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
+      <c r="C10" s="4">
+        <v>0.375</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="K10">
-        <v>34.48074149999999</v>
+        <v>34.480741499999993</v>
       </c>
       <c r="L10">
         <v>-118.1868378638664</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42315</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
+      <c r="C11" s="4">
+        <v>0.41666666666666702</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="K11">
-        <v>32.25994076</v>
+        <v>32.259940759999999</v>
       </c>
       <c r="L11">
         <v>-110.9275423</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42315</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
+      <c r="C12" s="4">
+        <v>0.45833333333333398</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="K12">
-        <v>40.3847</v>
+        <v>40.384700000000002</v>
       </c>
       <c r="L12">
         <v>-110.0487</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42315</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
+      <c r="C13" s="4">
+        <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>31.847832</v>
@@ -1458,974 +1439,974 @@
         <v>-111.049812</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42315</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="C14" s="4">
+        <v>0.54166666666666696</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="K14">
-        <v>33.53538055</v>
+        <v>33.535380549999999</v>
       </c>
       <c r="L14">
         <v>-112.04946</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42315</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
+      <c r="C15" s="4">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="K15">
-        <v>43.22154065</v>
+        <v>43.221540650000001</v>
       </c>
       <c r="L15">
-        <v>-86.21170214999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>-86.211702149999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42315</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
+      <c r="C16" s="4">
+        <v>0.625</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K16">
-        <v>34.41400609999999</v>
+        <v>34.414006099999987</v>
       </c>
       <c r="L16">
         <v>-114.2911257562788</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42315</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
+      <c r="C17" s="4">
+        <v>0.66666666666666696</v>
       </c>
       <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>99</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="K17">
-        <v>36.78825093</v>
+        <v>36.788250929999997</v>
       </c>
       <c r="L17">
-        <v>-119.7894705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>-119.78947049999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42315</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
+      <c r="C18" s="4">
+        <v>0.70833333333333404</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="K18">
-        <v>32.9929</v>
+        <v>32.992899999999999</v>
       </c>
       <c r="L18">
         <v>-112.9084</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>29295</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
+      <c r="C19" s="4">
+        <v>0.75</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="K19">
-        <v>38.8614783</v>
+        <v>38.861478300000002</v>
       </c>
       <c r="L19">
         <v>-104.7803978</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>32523</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
+      <c r="C20" s="4">
+        <v>0.79166666666666696</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="K20">
-        <v>29.9671</v>
+        <v>29.967099999999999</v>
       </c>
       <c r="L20">
-        <v>-90.36060000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>-90.360600000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>33039</v>
       </c>
-      <c r="C21" t="s">
-        <v>22</v>
+      <c r="C21" s="4">
+        <v>0.83333333333333404</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>34851</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
+      <c r="C22" s="4">
+        <v>0.875</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K22">
-        <v>33.24765176</v>
+        <v>33.247651759999997</v>
       </c>
       <c r="L22">
-        <v>-117.3344885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>-117.33448850000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>34926</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
+      <c r="C23" s="4">
+        <v>0.91666666666666696</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="K23">
-        <v>50.6913559</v>
+        <v>50.691355899999998</v>
       </c>
       <c r="L23">
-        <v>6.482614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>6.4826139999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>37089</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
+      <c r="C24" s="4">
+        <v>0.95833333333333404</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="G24" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" t="s">
-        <v>110</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="K24">
-        <v>43.2555</v>
+        <v>43.255499999999998</v>
       </c>
       <c r="L24">
-        <v>-70.88290000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>-70.882900000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>38244</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="C25" s="4">
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="K25">
-        <v>46.32244211</v>
+        <v>46.322442109999997</v>
       </c>
       <c r="L25">
-        <v>-79.52831519999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>-79.528315199999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42315</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
+      <c r="C26" s="4">
+        <v>1.0416666666666701</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="K26">
-        <v>33.29885794</v>
+        <v>33.298857939999998</v>
       </c>
       <c r="L26">
         <v>-111.8650639</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42315</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
+      <c r="C27" s="4">
+        <v>1.0833333333333399</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K27">
-        <v>32.97735</v>
+        <v>32.977350000000001</v>
       </c>
       <c r="L27">
         <v>-111.5108</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42315</v>
       </c>
-      <c r="C28" t="s">
-        <v>28</v>
+      <c r="C28" s="4">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K28">
-        <v>31.8682</v>
+        <v>31.868200000000002</v>
       </c>
       <c r="L28">
-        <v>-109.3315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>-109.33150000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42315</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
+      <c r="C29" s="4">
+        <v>1.1666666666666701</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="J29" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K29">
         <v>21.32260015</v>
       </c>
       <c r="L29">
-        <v>-157.8401287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>-157.84012870000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42315</v>
       </c>
-      <c r="C30" t="s">
-        <v>30</v>
+      <c r="C30" s="4">
+        <v>1.2083333333333399</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="K30">
-        <v>39.99063505</v>
+        <v>39.990635050000002</v>
       </c>
       <c r="L30">
-        <v>-75.14580121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>-75.145801210000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42315</v>
       </c>
-      <c r="C31" t="s">
-        <v>31</v>
+      <c r="C31" s="4">
+        <v>1.25</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="K31">
         <v>43.75806463</v>
       </c>
       <c r="L31">
-        <v>-88.41398658999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>-88.413986589999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>39782</v>
       </c>
-      <c r="C32" t="s">
-        <v>32</v>
+      <c r="C32" s="4">
+        <v>0.54166666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="J32" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K32">
         <v>43.6417</v>
       </c>
       <c r="L32">
-        <v>-123.6102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>-123.61020000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>40739</v>
       </c>
-      <c r="C33" t="s">
-        <v>33</v>
+      <c r="C33" s="4">
+        <v>1.3333333333333399</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="K33">
-        <v>34.23837495</v>
+        <v>34.238374950000001</v>
       </c>
       <c r="L33">
-        <v>-77.87846768999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>-77.878467689999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>40831</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
+      <c r="C34" s="4">
+        <v>1.375</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="J34" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="K34">
-        <v>41.76135531</v>
+        <v>41.761355309999999</v>
       </c>
       <c r="L34">
-        <v>-88.31528938</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>-88.315289379999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>41327</v>
       </c>
-      <c r="C35" t="s">
-        <v>26</v>
+      <c r="C35" s="4">
+        <v>1.4166666666666701</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J35" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="K35">
-        <v>28.25503467</v>
+        <v>28.255034670000001</v>
       </c>
       <c r="L35">
-        <v>-81.42949195999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>-81.429491959999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>41404</v>
       </c>
-      <c r="C36" t="s">
-        <v>23</v>
+      <c r="C36" s="4">
+        <v>1.4583333333333399</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="K36">
-        <v>34.05070709</v>
+        <v>34.050707090000003</v>
       </c>
       <c r="L36">
         <v>-118.2799351</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>41532</v>
       </c>
-      <c r="C37" t="s">
-        <v>35</v>
+      <c r="C37" s="4">
+        <v>1.5</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="J37" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="K37">
-        <v>25.80449581</v>
+        <v>25.804495809999999</v>
       </c>
       <c r="L37">
-        <v>-80.13392828000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>-80.133928280000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>41532</v>
       </c>
-      <c r="C38" t="s">
-        <v>35</v>
+      <c r="C38" s="4">
+        <v>1.5416666666666701</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="J38" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="K38">
-        <v>25.80449581</v>
+        <v>25.804495809999999</v>
       </c>
       <c r="L38">
-        <v>-80.13392828000001</v>
+        <v>-80.133928280000006</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I14" r:id="rId13"/>
-    <hyperlink ref="I15" r:id="rId14"/>
-    <hyperlink ref="I16" r:id="rId15"/>
-    <hyperlink ref="I17" r:id="rId16"/>
-    <hyperlink ref="I18" r:id="rId17"/>
-    <hyperlink ref="I19" r:id="rId18"/>
-    <hyperlink ref="I20" r:id="rId19"/>
-    <hyperlink ref="I21" r:id="rId20"/>
-    <hyperlink ref="I22" r:id="rId21"/>
-    <hyperlink ref="I23" r:id="rId22"/>
-    <hyperlink ref="I24" r:id="rId23"/>
-    <hyperlink ref="I25" r:id="rId24"/>
-    <hyperlink ref="I26" r:id="rId25"/>
-    <hyperlink ref="I27" r:id="rId26"/>
-    <hyperlink ref="I28" r:id="rId27"/>
-    <hyperlink ref="I29" r:id="rId28"/>
-    <hyperlink ref="I30" r:id="rId29"/>
-    <hyperlink ref="I31" r:id="rId30"/>
-    <hyperlink ref="I32" r:id="rId31"/>
-    <hyperlink ref="I33" r:id="rId32"/>
-    <hyperlink ref="I34" r:id="rId33"/>
-    <hyperlink ref="I35" r:id="rId34"/>
-    <hyperlink ref="I36" r:id="rId35"/>
-    <hyperlink ref="I37" r:id="rId36"/>
-    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
